--- a/doc/experimental.xlsx
+++ b/doc/experimental.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Recipes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Heating program" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Samples" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Abbreviation" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Doctorblading velocity" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Recipes" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Heating program" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Samples" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Abbreviation" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Doctorblading velocity" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="334">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -1930,6 +1930,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1938,7 +2044,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="275:277 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2592,9 +2698,9 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="12" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="J71" activeCellId="1" sqref="275:277 J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4511,14 +4617,23 @@
       <c r="E51" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F51" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G51" s="1" t="n">
         <v>2.45</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I51" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J51" s="1" t="n">
         <v>0.013</v>
+      </c>
+      <c r="K51" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L51" s="1" t="n">
         <v>1</v>
@@ -4542,14 +4657,23 @@
       <c r="E52" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F52" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G52" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I52" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J52" s="1" t="n">
         <v>0.013</v>
+      </c>
+      <c r="K52" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L52" s="1" t="n">
         <v>1</v>
@@ -4573,14 +4697,23 @@
       <c r="E53" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F53" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G53" s="1" t="n">
         <v>2.375</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>0.125</v>
       </c>
+      <c r="I53" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J53" s="1" t="n">
         <v>0.063</v>
+      </c>
+      <c r="K53" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L53" s="1" t="n">
         <v>2</v>
@@ -4604,14 +4737,23 @@
       <c r="E54" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F54" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G54" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I54" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J54" s="1" t="n">
         <v>0.013</v>
+      </c>
+      <c r="K54" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L54" s="1" t="n">
         <v>1</v>
@@ -4635,14 +4777,23 @@
       <c r="E55" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F55" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G55" s="1" t="n">
         <v>2.375</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>0.125</v>
       </c>
+      <c r="I55" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J55" s="1" t="n">
         <v>0.063</v>
+      </c>
+      <c r="K55" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L55" s="1" t="n">
         <v>2</v>
@@ -4666,14 +4817,23 @@
       <c r="E56" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F56" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G56" s="1" t="n">
         <v>2.45</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I56" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J56" s="1" t="n">
         <v>0.013</v>
+      </c>
+      <c r="K56" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L56" s="1" t="n">
         <v>1</v>
@@ -4697,14 +4857,23 @@
       <c r="E57" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F57" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G57" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="I57" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J57" s="1" t="n">
         <v>0.025</v>
+      </c>
+      <c r="K57" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L57" s="1" t="n">
         <v>1</v>
@@ -4728,14 +4897,23 @@
       <c r="E58" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F58" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G58" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="I58" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J58" s="1" t="n">
         <v>0.025</v>
+      </c>
+      <c r="K58" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L58" s="1" t="n">
         <v>1</v>
@@ -4759,14 +4937,23 @@
       <c r="E59" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="F59" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G59" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I59" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J59" s="1" t="n">
         <v>0.013</v>
+      </c>
+      <c r="K59" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L59" s="1" t="n">
         <v>1</v>
@@ -4790,14 +4977,23 @@
       <c r="E60" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F60" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G60" s="1" t="n">
         <v>2.45</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I60" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J60" s="1" t="n">
         <v>0.013</v>
+      </c>
+      <c r="K60" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="L60" s="1" t="n">
         <v>1</v>
@@ -4821,11 +5017,17 @@
       <c r="E61" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="F61" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G61" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>0.1</v>
+      </c>
+      <c r="I61" s="102" t="s">
+        <v>77</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>0.025</v>
@@ -4855,11 +5057,17 @@
       <c r="E62" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="F62" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G62" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>0.1</v>
+      </c>
+      <c r="I62" s="102" t="s">
+        <v>77</v>
       </c>
       <c r="J62" s="1" t="n">
         <v>0.025</v>
@@ -4889,14 +5097,18 @@
       <c r="E63" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="99"/>
+      <c r="F63" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G63" s="99" t="n">
         <v>2.4</v>
       </c>
       <c r="H63" s="99" t="n">
         <v>0.1</v>
       </c>
-      <c r="I63" s="100"/>
+      <c r="I63" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J63" s="99" t="n">
         <v>0.025</v>
       </c>
@@ -4925,14 +5137,23 @@
       <c r="E64" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="F64" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G64" s="1" t="n">
         <v>2.45</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I64" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J64" s="1" t="n">
         <v>0.025</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L64" s="1" t="n">
         <v>1</v>
@@ -4959,14 +5180,23 @@
       <c r="E65" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="F65" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G65" s="1" t="n">
         <v>2.425</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>0.075</v>
       </c>
+      <c r="I65" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J65" s="1" t="n">
         <v>0.038</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L65" s="1" t="n">
         <v>1</v>
@@ -4990,14 +5220,23 @@
       <c r="E66" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="F66" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G66" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="I66" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J66" s="1" t="n">
         <v>0.05</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L66" s="1" t="n">
         <v>1</v>
@@ -5021,14 +5260,23 @@
       <c r="E67" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="F67" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G67" s="1" t="n">
         <v>2.375</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>0.125</v>
       </c>
+      <c r="I67" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J67" s="1" t="n">
         <v>0.063</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L67" s="1" t="n">
         <v>1</v>
@@ -5052,14 +5300,23 @@
       <c r="E68" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F68" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G68" s="1" t="n">
         <v>2.375</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>0.125</v>
       </c>
+      <c r="I68" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J68" s="1" t="n">
         <v>0.063</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L68" s="1" t="n">
         <v>1</v>
@@ -5083,14 +5340,23 @@
       <c r="E69" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="F69" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G69" s="1" t="n">
         <v>2.425</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>0.075</v>
       </c>
+      <c r="I69" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J69" s="1" t="n">
         <v>0.038</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L69" s="1" t="n">
         <v>1</v>
@@ -5114,14 +5380,23 @@
       <c r="E70" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="F70" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G70" s="1" t="n">
         <v>2.45</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I70" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J70" s="1" t="n">
         <v>0.025</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L70" s="1" t="n">
         <v>1</v>
@@ -5145,14 +5420,23 @@
       <c r="E71" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="F71" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G71" s="1" t="n">
         <v>2.375</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>0.125</v>
       </c>
+      <c r="I71" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J71" s="1" t="n">
         <v>0.063</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L71" s="1" t="n">
         <v>1</v>
@@ -5176,14 +5460,23 @@
       <c r="E72" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="F72" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G72" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="I72" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J72" s="1" t="n">
         <v>0.05</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L72" s="1" t="n">
         <v>1</v>
@@ -5207,14 +5500,23 @@
       <c r="E73" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="F73" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="G73" s="1" t="n">
         <v>2.45</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="I73" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="J73" s="1" t="n">
         <v>0.025</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="L73" s="1" t="n">
         <v>1</v>
@@ -5317,7 +5619,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="275:277 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5774,10 +6076,10 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K304" activeCellId="0" sqref="K304"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A277" activeCellId="0" sqref="275:277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5785,10 +6087,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="108" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="108" width="7.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
@@ -14819,7 +15121,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="275:277 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14865,7 +15167,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="275:277 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
